--- a/feature selection.xlsx
+++ b/feature selection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Itr 1 (70,3%)" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="31">
   <si>
     <t>Limit</t>
   </si>
@@ -138,18 +138,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,14 +158,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -289,6 +312,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>1st</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Iteration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -519,244 +603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="233516944"/>
-        <c:axId val="235975344"/>
+        <c:axId val="235925608"/>
+        <c:axId val="235928352"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Limit</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Itr 1 (70,3%)'!$A$1:$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>X01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>X02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>X03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>X04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>X05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>X06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>X07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>X08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>X09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>X10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>X11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>X12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>X13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>X14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>X15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>X16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>X17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>X18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>X19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>X20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>X21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>X22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>X23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>X24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>X25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>X26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>X30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Itr 1 (70,3%)'!$C$1:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="438772048"/>
-        <c:axId val="434555760"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="233516944"/>
+        <c:axId val="235925608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,6 +627,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -813,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235975344"/>
+        <c:crossAx val="235928352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -821,7 +728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235975344"/>
+        <c:axId val="235928352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -843,6 +750,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -880,76 +843,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233516944"/>
+        <c:crossAx val="235925608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="434555760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="438772048"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="438772048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434555760"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1009,6 +906,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>2nd Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (X10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1034,9 +992,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 2 (X10 - 73,7%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 2 (X10 - 73,7%)'!$A$1:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -1065,66 +1023,63 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
+                  <c:v>X28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>X28</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -1132,10 +1087,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 2 (X10 - 73,7%)'!$B$1:$B$30</c:f>
+              <c:f>'Itr 2 (X10 - 73,7%)'!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.70338979999999995</c:v>
                 </c:pt>
@@ -1163,64 +1118,64 @@
                 <c:pt idx="8">
                   <c:v>0.63559319999999997</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72033899999999995</c:v>
+                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.66101690000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67796610000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66949150000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67796610000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66949150000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.72033899999999995</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66101690000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.65254239999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.67796610000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.66949150000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.67796610000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.66949150000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.65254239999999997</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67796610000000002</c:v>
+                  <c:v>0.69491530000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.69491530000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69491530000000001</c:v>
+                  <c:v>0.71186439999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.71186439999999995</c:v>
+                  <c:v>0.72881359999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.68644070000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.63559319999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.68644070000000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63559319999999997</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68644070000000001</c:v>
+                  <c:v>0.66101690000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.66101690000000002</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.66949150000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.66949150000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0.69491530000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1236,8 +1191,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="438764208"/>
-        <c:axId val="438763424"/>
+        <c:axId val="401187768"/>
+        <c:axId val="401182672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1262,9 +1217,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 2 (X10 - 73,7%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 2 (X10 - 73,7%)'!$A$1:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -1293,66 +1248,63 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
+                  <c:v>X28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>X28</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -1360,99 +1312,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 2 (X10 - 73,7%)'!$C$1:$C$30</c:f>
+              <c:f>'Itr 2 (X10 - 73,7%)'!$C$1:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7372881</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438759112"/>
-        <c:axId val="438764600"/>
+        <c:axId val="401183456"/>
+        <c:axId val="401184240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438764208"/>
+        <c:axId val="401187768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,6 +1442,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1530,7 +1535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438763424"/>
+        <c:crossAx val="401182672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1538,7 +1543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438763424"/>
+        <c:axId val="401182672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1560,6 +1565,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1597,18 +1658,79 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438764208"/>
+        <c:crossAx val="401187768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438764600"/>
+        <c:axId val="401184240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Previous Iteration Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1646,12 +1768,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438759112"/>
+        <c:crossAx val="401183456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="438759112"/>
+        <c:axId val="401183456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438764600"/>
+        <c:crossAx val="401184240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1727,6 +1849,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>2nd Iteration (X13)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1752,9 +1930,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 2 (X13 - 72,9%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 2 (X13 - 72,9%)'!$A$1:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -1792,57 +1970,54 @@
                   <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
+                  <c:v>X28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>X28</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -1850,10 +2025,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 2 (X13 - 72,9%)'!$B$1:$B$30</c:f>
+              <c:f>'Itr 2 (X13 - 72,9%)'!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.72881359999999995</c:v>
                 </c:pt>
@@ -1890,55 +2065,55 @@
                 <c:pt idx="11">
                   <c:v>0.69491530000000001</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69491530000000001</c:v>
+                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69491530000000001</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.68644070000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67796610000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71186439999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69491530000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72033899999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67796610000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72033899999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69491530000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68644070000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.70338979999999995</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.68644070000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.67796610000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.71186439999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.69491530000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.67796610000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.69491530000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.68644070000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.69491530000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.69491530000000001</c:v>
+                  <c:v>0.63559319999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63559319999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0.70338979999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -1954,8 +2129,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="231386592"/>
-        <c:axId val="231386984"/>
+        <c:axId val="401180320"/>
+        <c:axId val="401186984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1980,9 +2155,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 2 (X13 - 72,9%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 2 (X13 - 72,9%)'!$A$1:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -2020,57 +2195,54 @@
                   <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
+                  <c:v>X28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>X28</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -2078,99 +2250,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 2 (X13 - 72,9%)'!$C$1:$C$30</c:f>
+              <c:f>'Itr 2 (X13 - 72,9%)'!$C$1:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.72881359999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,11 +2356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231387376"/>
-        <c:axId val="231387768"/>
+        <c:axId val="401187376"/>
+        <c:axId val="401186200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231386592"/>
+        <c:axId val="401180320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,6 +2380,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2248,7 +2473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231386984"/>
+        <c:crossAx val="401186984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2256,7 +2481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231386984"/>
+        <c:axId val="401186984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2278,6 +2503,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2315,18 +2596,74 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231386592"/>
+        <c:crossAx val="401180320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231387768"/>
+        <c:axId val="401186200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Previous Iteration Maximum Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2364,12 +2701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231387376"/>
+        <c:crossAx val="401187376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="231387376"/>
+        <c:axId val="401187376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231387768"/>
+        <c:crossAx val="401186200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,6 +2782,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3rd Iteration (X10, X28)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2470,9 +2863,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$A$1:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -2501,66 +2894,60 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -2568,10 +2955,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$B$1:$B$30</c:f>
+              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$B$1:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0.72881359999999995</c:v>
                 </c:pt>
@@ -2599,17 +2986,20 @@
                 <c:pt idx="8">
                   <c:v>0.69491530000000001</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7542373</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.68644070000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68644070000000001</c:v>
+                  <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.66101690000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.66101690000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.70338979999999995</c:v>
@@ -2618,13 +3008,13 @@
                   <c:v>0.70338979999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70338979999999995</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.69491530000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.69491530000000001</c:v>
+                  <c:v>0.72033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.72033899999999995</c:v>
@@ -2633,27 +3023,24 @@
                   <c:v>0.72033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.7457627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71186439999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70338979999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7542373</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.72033899999999995</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.7457627</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.71186439999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.7542373</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>0.67796610000000002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="27">
                   <c:v>0.7372881</c:v>
                 </c:pt>
               </c:numCache>
@@ -2669,8 +3056,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="231388160"/>
-        <c:axId val="231389336"/>
+        <c:axId val="401186592"/>
+        <c:axId val="401180712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2695,9 +3082,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$A$1:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -2726,66 +3113,60 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -2793,99 +3174,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$C$1:$C$30</c:f>
+              <c:f>'Itr 3 (X10 + X28 - 75,4%)'!$C$1:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7542373</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7542373</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.7542373</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,11 +3277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231389728"/>
-        <c:axId val="231388552"/>
+        <c:axId val="401184632"/>
+        <c:axId val="401181104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231388160"/>
+        <c:axId val="401186592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,6 +3301,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2963,7 +3394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231389336"/>
+        <c:crossAx val="401180712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2971,7 +3402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231389336"/>
+        <c:axId val="401180712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2993,6 +3424,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3030,18 +3517,74 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231388160"/>
+        <c:crossAx val="401186592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231388552"/>
+        <c:axId val="401181104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Previous Iteration Maximum Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3079,12 +3622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231389728"/>
+        <c:crossAx val="401184632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="231389728"/>
+        <c:axId val="401184632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +3637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231388552"/>
+        <c:crossAx val="401181104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3160,6 +3703,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>4th Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (X10, X28, X11)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3185,9 +3789,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$A$1:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -3216,66 +3820,57 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -3283,10 +3878,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$B$1:$B$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$B$1:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.7457627</c:v>
                 </c:pt>
@@ -3314,14 +3909,20 @@
                 <c:pt idx="8">
                   <c:v>0.70338979999999995</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70338979999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70338979999999995</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70338979999999995</c:v>
+                  <c:v>0.7457627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.70338979999999995</c:v>
+                  <c:v>0.72033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7457627</c:v>
+                  <c:v>0.72033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.72033899999999995</c:v>
@@ -3330,42 +3931,36 @@
                   <c:v>0.72033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.72881359999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71186439999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68644070000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7457627</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.72033899999999995</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.72881359999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71186439999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>0.7372881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70338979999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78813560000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69491530000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.68644070000000001</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.7457627</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7372881</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69491530000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.68644070000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0.7542373</c:v>
                 </c:pt>
               </c:numCache>
@@ -3381,8 +3976,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="440885216"/>
-        <c:axId val="440885608"/>
+        <c:axId val="401181888"/>
+        <c:axId val="401182280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3407,9 +4002,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$A$1:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -3438,66 +4033,57 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -3505,99 +4091,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$C$1:$C$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X11 - 78,8%)'!$C$1:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78813560000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,11 +4191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573793560"/>
-        <c:axId val="440886000"/>
+        <c:axId val="401183848"/>
+        <c:axId val="401183064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="440885216"/>
+        <c:axId val="401181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,6 +4215,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3675,7 +4308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440885608"/>
+        <c:crossAx val="401182280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3683,7 +4316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440885608"/>
+        <c:axId val="401182280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3705,6 +4338,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3742,18 +4431,74 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440885216"/>
+        <c:crossAx val="401181888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440886000"/>
+        <c:axId val="401183064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Previous Iteration Maximum Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3791,12 +4536,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573793560"/>
+        <c:crossAx val="401183848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="573793560"/>
+        <c:axId val="401183848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3806,7 +4551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440886000"/>
+        <c:crossAx val="401183064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3872,6 +4617,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4th Iteration (X10, X28, X26)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3897,9 +4698,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$A$1:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -3928,66 +4729,57 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -3995,10 +4787,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$B$1:$B$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$B$1:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.77118640000000005</c:v>
                 </c:pt>
@@ -4027,66 +4819,57 @@
                   <c:v>0.72881359999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.7627119</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7627119</c:v>
+                  <c:v>0.71186439999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.71186439999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.7372881</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.71186439999999995</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7372881</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.69491530000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70338979999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7542373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72033899999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70338979999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72033899999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.71186439999999995</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
+                  <c:v>0.72881359999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77118640000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72881359999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.69491530000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7542373</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.70338979999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.72033899999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.71186439999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.72881359999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.77118640000000005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.72881359999999995</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.68644070000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69491530000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.68644070000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0.7542373</c:v>
                 </c:pt>
               </c:numCache>
@@ -4102,8 +4885,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573792384"/>
-        <c:axId val="441484160"/>
+        <c:axId val="401577896"/>
+        <c:axId val="401573976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4128,9 +4911,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$A$1:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -4159,66 +4942,57 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -4226,99 +5000,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$C$1:$C$30</c:f>
+              <c:f>'Itr 4 (X10 + X28 + X26 - 77,1%)'!$C$1:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.77118640000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.77118640000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.77118640000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.77118640000000005</c:v>
+                  <c:v>0.7542373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,11 +5100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441486904"/>
-        <c:axId val="441484944"/>
+        <c:axId val="401572016"/>
+        <c:axId val="401574760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="573792384"/>
+        <c:axId val="401577896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,6 +5124,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4396,7 +5217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441484160"/>
+        <c:crossAx val="401573976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4404,7 +5225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441484160"/>
+        <c:axId val="401573976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4426,6 +5247,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4463,18 +5340,74 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573792384"/>
+        <c:crossAx val="401577896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441484944"/>
+        <c:axId val="401574760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Previous Iteration Maximum Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4512,12 +5445,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441486904"/>
+        <c:crossAx val="401572016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441486904"/>
+        <c:axId val="401572016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +5460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441484944"/>
+        <c:crossAx val="401574760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4593,6 +5526,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5th Iteration (X10, X28, X11, X26)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4618,9 +5607,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$A$1:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -4649,66 +5638,54 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -4716,10 +5693,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$B$1:$B$30</c:f>
+              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$B$1:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.7627119</c:v>
                 </c:pt>
@@ -4748,66 +5725,54 @@
                   <c:v>0.7627119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.72881359999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.71186439999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72881359999999995</c:v>
+                  <c:v>0.69491530000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.72033899999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.71186439999999995</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.69491530000000001</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72033899999999995</c:v>
+                  <c:v>0.7372881</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.77118640000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67796610000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68644070000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7542373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7627119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77966100000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.71186439999999995</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>0.7372881</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.77118640000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.67796610000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.68644070000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7542373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.7627119</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77966100000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.71186439999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7372881</c:v>
+                  <c:v>0.7457627</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.71186439999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7457627</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0.78813560000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -4823,8 +5788,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573677736"/>
-        <c:axId val="573677344"/>
+        <c:axId val="401577112"/>
+        <c:axId val="401576720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4849,9 +5814,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$A$1:$A$30</c:f>
+              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$A$1:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>X01</c:v>
                 </c:pt>
@@ -4880,66 +5845,54 @@
                   <c:v>X09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X10</c:v>
+                  <c:v>X12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X11</c:v>
+                  <c:v>X13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X12</c:v>
+                  <c:v>X14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X13</c:v>
+                  <c:v>X15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X14</c:v>
+                  <c:v>X16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X15</c:v>
+                  <c:v>X17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X16</c:v>
+                  <c:v>X18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X17</c:v>
+                  <c:v>X19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X18</c:v>
+                  <c:v>X20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>X19</c:v>
+                  <c:v>X21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>X20</c:v>
+                  <c:v>X22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>X21</c:v>
+                  <c:v>X23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>X22</c:v>
+                  <c:v>X24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>X23</c:v>
+                  <c:v>X25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>X24</c:v>
+                  <c:v>X27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>X25</c:v>
+                  <c:v>X29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>X26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>X27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>X28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>X29</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>X30</c:v>
                 </c:pt>
               </c:strCache>
@@ -4947,10 +5900,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$C$1:$C$30</c:f>
+              <c:f>'Itr 5 (X10 + X28 + X11 + X26)'!$C$1:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.78813560000000005</c:v>
                 </c:pt>
@@ -5027,18 +5980,6 @@
                   <c:v>0.78813560000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78813560000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0.78813560000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -5056,11 +5997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573675776"/>
-        <c:axId val="573678520"/>
+        <c:axId val="401575544"/>
+        <c:axId val="401573192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="573677736"/>
+        <c:axId val="401577112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,6 +6021,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5117,7 +6114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573677344"/>
+        <c:crossAx val="401576720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5125,7 +6122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573677344"/>
+        <c:axId val="401576720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5147,6 +6144,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5184,18 +6237,74 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573677736"/>
+        <c:crossAx val="401577112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573678520"/>
+        <c:axId val="401573192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Previous Iteration Maximum Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5233,12 +6342,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573675776"/>
+        <c:crossAx val="401575544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="573675776"/>
+        <c:axId val="401575544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +6357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573678520"/>
+        <c:crossAx val="401573192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9239,7 +10348,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9276,7 +10385,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9313,7 +10422,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9350,7 +10459,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9387,7 +10496,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9424,7 +10533,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9714,8 +10823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10091,12 +11200,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$B$32</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10107,10 +11216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10123,8 +11232,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C1">
-        <f>$B$32</f>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10135,8 +11244,8 @@
         <v>0.65254239999999997</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">$B$32</f>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10147,8 +11256,8 @@
         <v>0.65254239999999997</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10159,8 +11268,8 @@
         <v>0.64406779999999997</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10171,8 +11280,8 @@
         <v>0.72881359999999995</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10183,8 +11292,8 @@
         <v>0.71186439999999995</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10195,8 +11304,8 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10207,8 +11316,8 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10219,273 +11328,263 @@
         <v>0.63559319999999997</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.72033899999999995</v>
+      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.72033899999999995</v>
+        <v>0.66101690000000002</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.66101690000000002</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.67796610000000002</v>
+        <v>0.66949150000000002</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.66949150000000002</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.67796610000000002</v>
+        <v>0.66949150000000002</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.66949150000000002</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>0.72033899999999995</v>
+        <v>0.65254239999999997</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0.65254239999999997</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.67796610000000002</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.69491530000000001</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.69491530000000001</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.71186439999999995</v>
+        <v>0.72881359999999995</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.72881359999999995</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.68644070000000001</v>
+        <v>0.63559319999999997</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.63559319999999997</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.68644070000000001</v>
+        <v>0.66101690000000002</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>0.66101690000000002</v>
+        <v>0.7372881</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.7372881</v>
+        <v>0.66949150000000002</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.66949150000000002</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0.69491530000000001</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.7372881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B32">
-        <f>MAX('Itr 1 (70,3%)'!B32,MAX(B1:B30))</f>
-        <v>0.7372881</v>
+      <c r="B31">
+        <f>'Itr 1 (70,3%)'!B32</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>$B$32</formula>
+  <conditionalFormatting sqref="B1:B29">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>MAX($B$1:$B$29)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10495,10 +11594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10511,8 +11610,8 @@
         <v>0.72881359999999995</v>
       </c>
       <c r="C1">
-        <f>$B$32</f>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10523,8 +11622,8 @@
         <v>0.61864410000000003</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">$B$32</f>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10535,8 +11634,8 @@
         <v>0.64406779999999997</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10547,8 +11646,8 @@
         <v>0.68644070000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10559,8 +11658,8 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10571,8 +11670,8 @@
         <v>0.65254239999999997</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10583,8 +11682,8 @@
         <v>0.67796610000000002</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10595,8 +11694,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10607,8 +11706,8 @@
         <v>0.71186439999999995</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10619,8 +11718,8 @@
         <v>0.67796610000000002</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10631,8 +11730,8 @@
         <v>0.71186439999999995</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10643,237 +11742,227 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.69491530000000001</v>
+      </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.69491530000000001</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.70338979999999995</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
+        <v>0.68644070000000001</v>
+      </c>
+      <c r="C16">
+        <f>$B$31</f>
         <v>0.70338979999999995</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>0.68644070000000001</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0.67796610000000002</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.71186439999999995</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.69491530000000001</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.72033899999999995</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.67796610000000002</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.72033899999999995</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.69491530000000001</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.68644070000000001</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
+        <v>0.69491530000000001</v>
+      </c>
+      <c r="C26">
+        <f>$B$31</f>
         <v>0.70338979999999995</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0.69491530000000001</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.69491530000000001</v>
+        <v>0.63559319999999997</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
+        <f>$B$31</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.63559319999999997</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
+        <f>$B$31</f>
         <v>0.70338979999999995</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.72881359999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B32">
-        <f>MAX('Itr 1 (70,3%)'!B32,MAX(B1:B30))</f>
-        <v>0.72881359999999995</v>
+      <c r="B31">
+        <f>'Itr 1 (70,3%)'!B32</f>
+        <v>0.70338979999999995</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>$B$32</formula>
+  <conditionalFormatting sqref="B1:B29">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+      <formula>MAX($B$1:$B$29)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10883,10 +11972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10899,8 +11988,8 @@
         <v>0.72881359999999995</v>
       </c>
       <c r="C1">
-        <f>$B$32</f>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10911,8 +12000,8 @@
         <v>0.67796610000000002</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">$B$32</f>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10923,8 +12012,8 @@
         <v>0.68644070000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10935,8 +12024,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10947,8 +12036,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10959,8 +12048,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10971,8 +12060,8 @@
         <v>0.68644070000000001</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10983,8 +12072,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10995,271 +12084,251 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.7542373</v>
+      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.7542373</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.68644070000000001</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.70338979999999995</v>
+        <v>0.66101690000000002</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.66101690000000002</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.70338979999999995</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.70338979999999995</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>0.70338979999999995</v>
+        <v>0.7372881</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
+        <v>0.69491530000000001</v>
+      </c>
+      <c r="C18">
+        <f>$B$30</f>
         <v>0.7372881</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.69491530000000001</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.72033899999999995</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.72033899999999995</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.72033899999999995</v>
+        <v>0.7457627</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.7457627</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.71186439999999995</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.70338979999999995</v>
+        <v>0.7542373</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.7542373</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.72033899999999995</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0.7372881</v>
+      </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0.67796610000000002</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
+        <f>$B$30</f>
+        <v>0.7372881</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B30">
+        <f>MAX('Itr 2 (X10 - 73,7%)'!$B$1:$B$29)</f>
         <v>0.7372881</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.7542373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>MAX('Itr 2 (X10 - 73,7%)'!B32,MAX(B1:B30))</f>
-        <v>0.7542373</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>$B$32</formula>
+  <conditionalFormatting sqref="B1:B28">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>MAX($B$1:$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11269,10 +12338,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11285,8 +12354,8 @@
         <v>0.7457627</v>
       </c>
       <c r="C1">
-        <f>$B$32</f>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11297,8 +12366,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">$B$32</f>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11309,8 +12378,8 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11321,8 +12390,8 @@
         <v>0.66101690000000002</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11333,8 +12402,8 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11345,8 +12414,8 @@
         <v>0.71186439999999995</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11357,8 +12426,8 @@
         <v>0.7457627</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,8 +12438,8 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11381,269 +12450,239 @@
         <v>0.70338979999999995</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.70338979999999995</v>
+      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.70338979999999995</v>
+      </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.70338979999999995</v>
+        <v>0.7457627</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.70338979999999995</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.7457627</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0.72033899999999995</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0.72033899999999995</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.72033899999999995</v>
+        <v>0.72881359999999995</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.72033899999999995</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.72881359999999995</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.71186439999999995</v>
+        <v>0.7457627</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.68644070000000001</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.7457627</v>
+        <v>0.7372881</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0.72033899999999995</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>0.7372881</v>
+        <v>0.78813560000000005</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>0.70338979999999995</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.78813560000000005</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>0.69491530000000001</v>
+        <v>0.7542373</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>0.68644070000000001</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
+        <f>MAX('Itr 3 (X10 + X28 - 75,4%)'!B1:B28)</f>
         <v>0.7542373</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>MAX('Itr 3 (X10 + X28 - 75,4%)'!B32,MAX(B1:B30))</f>
-        <v>0.78813560000000005</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>$B$32</formula>
+  <conditionalFormatting sqref="B1:B27">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>$B$29</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11653,10 +12692,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11669,8 +12708,8 @@
         <v>0.77118640000000005</v>
       </c>
       <c r="C1">
-        <f>$B$32</f>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11681,8 +12720,8 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">$B$32</f>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11693,8 +12732,8 @@
         <v>0.66949150000000002</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11705,8 +12744,8 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11717,8 +12756,8 @@
         <v>0.72881359999999995</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11729,8 +12768,8 @@
         <v>0.69491530000000001</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11741,8 +12780,8 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11753,8 +12792,8 @@
         <v>0.67796610000000002</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11765,275 +12804,239 @@
         <v>0.72881359999999995</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.7627119</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.7627119</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.71186439999999995</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.71186439999999995</v>
+        <v>0.7372881</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.7372881</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.71186439999999995</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.69491530000000001</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>0.70338979999999995</v>
+        <v>0.7542373</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
+        <v>0.72033899999999995</v>
+      </c>
+      <c r="C18">
+        <f>$B$29</f>
         <v>0.7542373</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.72033899999999995</v>
+        <v>0.70338979999999995</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.70338979999999995</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.72033899999999995</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.71186439999999995</v>
+        <v>0.72881359999999995</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.72881359999999995</v>
+        <v>0.77118640000000005</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.77118640000000005</v>
+        <v>0.72881359999999995</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>0.72881359999999995</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.68644070000000001</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>0.69491530000000001</v>
+        <v>0.7542373</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
+        <f>$B$29</f>
+        <v>0.7542373</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>0.68644070000000001</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
+        <f>MAX('Itr 3 (X10 + X28 - 75,4%)'!B1:B28)</f>
         <v>0.7542373</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.77118640000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>MAX('Itr 3 (X10 + X28 - 75,4%)'!B32,MAX(B1:B30))</f>
-        <v>0.77118640000000005</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$B$32</formula>
+  <conditionalFormatting sqref="B1:B27">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>MAX($B$1:$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12043,10 +13046,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,7 +13062,7 @@
         <v>0.7627119</v>
       </c>
       <c r="C1">
-        <f>$B$32</f>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12071,7 +13074,7 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">$B$32</f>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12083,7 +13086,7 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12095,7 +13098,7 @@
         <v>0.7372881</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12107,7 +13110,7 @@
         <v>0.71186439999999995</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12119,7 +13122,7 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12131,7 +13134,7 @@
         <v>0.7457627</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12143,7 +13146,7 @@
         <v>0.72033899999999995</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
@@ -12155,275 +13158,227 @@
         <v>0.7627119</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.72881359999999995</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.71186439999999995</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.72881359999999995</v>
+        <v>0.69491530000000001</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.71186439999999995</v>
+        <v>0.72033899999999995</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.69491530000000001</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.72033899999999995</v>
+        <v>0.7372881</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.71186439999999995</v>
+        <v>0.77118640000000005</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.7372881</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.77118640000000005</v>
+        <v>0.68644070000000001</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.67796610000000002</v>
+        <v>0.7542373</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.68644070000000001</v>
+        <v>0.7627119</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.7542373</v>
+        <v>0.77966100000000005</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.7627119</v>
+        <v>0.71186439999999995</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0.77966100000000005</v>
+        <v>0.7372881</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0.71186439999999995</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.7372881</v>
+        <v>0.7457627</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0.78813560000000005</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>0.71186439999999995</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
+        <f>$B$28</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
+      <c r="B28">
+        <f>MAX('Itr 4 (X10 + X28 + X11 - 78,8%)'!B1:B27)</f>
         <v>0.78813560000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0.7457627</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0.78813560000000005</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>MAX('Itr 4 (X10 + X28 + X11 - 78,8%)'!B32,MAX(B1:B30))</f>
-        <v>0.78813560000000005</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$B$32</formula>
+  <conditionalFormatting sqref="B1:B26">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>$B$28</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
